--- a/data/Questionaire.xlsx
+++ b/data/Questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\GitHub\RoleRecommender\my_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ECA577-5E2D-4F48-BE54-7E227F5E2A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11CD7A1-8FD2-4471-B417-CD2E917428BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>index</t>
   </si>
@@ -1107,9 +1107,6 @@
   </si>
   <si>
     <t>Q35_B_OTHER_In the next 2 years, do you hope to become more familiar with any of these tools for managing ML experiments? (Select all that apply) - Selected Choice - Other</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1472,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A311" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+      <selection activeCell="A357" sqref="A357:XFD357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4332,14 +4329,6 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>357</v>
-      </c>
-      <c r="B357" t="s">
-        <v>357</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B356" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
